--- a/temp_excel_files/Papers.xlsx
+++ b/temp_excel_files/Papers.xlsx
@@ -432,6 +432,15 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="" customWidth="1" min="1" max="1"/>
+    <col width="" customWidth="1" min="2" max="2"/>
+    <col width="" customWidth="1" min="3" max="3"/>
+    <col width="" customWidth="1" min="4" max="4"/>
+    <col width="" customWidth="1" min="5" max="5"/>
+    <col width="" customWidth="1" min="6" max="6"/>
+    <col width="" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/temp_excel_files/Papers.xlsx
+++ b/temp_excel_files/Papers.xlsx
@@ -432,15 +432,6 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="" customWidth="1" min="1" max="1"/>
-    <col width="" customWidth="1" min="2" max="2"/>
-    <col width="" customWidth="1" min="3" max="3"/>
-    <col width="" customWidth="1" min="4" max="4"/>
-    <col width="" customWidth="1" min="5" max="5"/>
-    <col width="" customWidth="1" min="6" max="6"/>
-    <col width="" customWidth="1" min="7" max="7"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">

--- a/temp_excel_files/Papers.xlsx
+++ b/temp_excel_files/Papers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,11 +464,6 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>HallId</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
